--- a/simulacoes.xlsx
+++ b/simulacoes.xlsx
@@ -378,7 +378,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>

--- a/simulacoes.xlsx
+++ b/simulacoes.xlsx
@@ -378,7 +378,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -411,27 +411,27 @@
       </c>
       <c r="D2" s="2">
         <f>A2*C2 + A3*C3 +C4</f>
-        <v>-2.2430411044429022</v>
+        <v>-21.289361058706302</v>
       </c>
       <c r="E2" s="2">
         <f>1/(1+EXP(-D2))</f>
-        <v>9.5951417547254961E-2</v>
+        <v>5.6773800678765906E-10</v>
       </c>
       <c r="F2" s="1">
         <v>-12.9853074081784</v>
       </c>
       <c r="G2" s="2">
         <f>E2*F2 + E6*F3 + F4</f>
-        <v>2.5424778013050604</v>
+        <v>-5.6501600620105092</v>
       </c>
       <c r="H2" s="2">
         <f>1/(1+EXP(-G2))</f>
-        <v>0.92706653844514997</v>
+        <v>3.5046281837563431E-3</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
         <v>-19.046319954263399</v>
@@ -457,11 +457,11 @@
       </c>
       <c r="D6" s="2">
         <f>A2*C6+A3*C7+C8</f>
-        <v>-12.650835188865099</v>
+        <v>-1.6196715133908981</v>
       </c>
       <c r="E6" s="2">
         <f>1/(1+EXP(-D6))</f>
-        <v>3.2048720392417296E-6</v>
+        <v>0.1652501774907584</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15">
